--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_05_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_05_end.xlsx
@@ -39,7 +39,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">파괴된 감염자 지역에 아직 남아있을 보급품들의 회수해 부족한 안전가옥의 물자와 식량을 보충하자는 제안을 한 로도스 아일랜드의 오퍼레이터들. 하지만 작전 중 그들은 아미르의 병사들과 맞닥뜨리게 된다.
+    <t xml:space="preserve">파괴된 감염자 지역에 아직 남아있을 보급품들을 회수해 부족한 안전가옥의 물자와 식량을 보충하자는 제안을 한 로도스 아일랜드의 오퍼레이터들. 하지만 작전 중 그들은 아미르의 병사들과 맞닥뜨리게 된다.
 </t>
   </si>
 </sst>
